--- a/data/NG_PRI_SUM_DCU_NUS_M.xlsx
+++ b/data/NG_PRI_SUM_DCU_NUS_M.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C37BFC22-D143-E140-82D0-69893963FCDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" activeTab="1"/>
+    <workbookView xWindow="4660" yWindow="460" windowWidth="16140" windowHeight="10000"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
     <sheet name="Data 1" sheetId="22" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="9.9999999999994451E-4"/>
+  <calcPr calcId="80000" iterateDelta="9.9999999999994451E-4"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,7 +60,7 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>5/2018</t>
+    <t>5/2020</t>
   </si>
   <si>
     <t>1/15/1973</t>
@@ -60,13 +69,13 @@
     <t>Release Date:</t>
   </si>
   <si>
-    <t>7/31/2018</t>
+    <t>7/31/2020</t>
   </si>
   <si>
     <t>Next Release Date:</t>
   </si>
   <si>
-    <t>8/31/2018</t>
+    <t>8/31/2020</t>
   </si>
   <si>
     <t>Excel File Name:</t>
@@ -96,7 +105,7 @@
     <t>(202) 586-8800</t>
   </si>
   <si>
-    <t>7/26/2018 2:22:55 PM</t>
+    <t>7/29/2020 8:35:45 PM</t>
   </si>
   <si>
     <t>Data 1: U.S. Natural Gas Prices</t>
@@ -223,22 +232,26 @@
       <sz val="14"/>
       <color indexed="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -249,21 +262,25 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -271,6 +288,7 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -278,22 +296,26 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -704,7 +726,7 @@
   </sheetPr>
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -846,7 +868,7 @@
     <hyperlink ref="B7" location="'Data 1'!A1" display="Data 1"/>
     <hyperlink ref="C13" r:id="rId1"/>
     <hyperlink ref="C14" r:id="rId2" display="http://www.eia.gov/"/>
-    <hyperlink ref="C15" r:id="rId3" display="mailto:infoctr@eia.gov_x0003_"/>
+    <hyperlink ref="C15" r:id="rId3" display="mailto:infoctr@eia.gov_x0003__x0003_Ɖ賛_xffff__x001d_"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -859,13 +881,13 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:Q549"/>
+  <dimension ref="A1:Q573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D139" sqref="D139"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -933,7 +955,7 @@
       </c>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="78" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="84" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>44</v>
       </c>
@@ -15932,10 +15954,10 @@
         <v>3.62</v>
       </c>
       <c r="O520">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="P520">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="521" spans="1:16" x14ac:dyDescent="0.15">
@@ -15976,10 +15998,10 @@
         <v>69.400000000000006</v>
       </c>
       <c r="N521">
-        <v>3.64</v>
+        <v>3.58</v>
       </c>
       <c r="O521">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="P521">
         <v>2.83</v>
@@ -16023,10 +16045,10 @@
         <v>66.7</v>
       </c>
       <c r="N522">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O522">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="P522">
         <v>2.33</v>
@@ -16070,10 +16092,10 @@
         <v>65</v>
       </c>
       <c r="N523">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="O523">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="P523">
         <v>2.52</v>
@@ -16120,7 +16142,7 @@
         <v>2.9</v>
       </c>
       <c r="O524">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="P524">
         <v>2.4900000000000002</v>
@@ -16167,7 +16189,7 @@
         <v>2.89</v>
       </c>
       <c r="O525">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="P525">
         <v>2.77</v>
@@ -16199,7 +16221,7 @@
         <v>4.42</v>
       </c>
       <c r="J526">
-        <v>16.55</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="K526">
         <v>95.9</v>
@@ -16211,10 +16233,10 @@
         <v>56.9</v>
       </c>
       <c r="N526">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="O526">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="P526">
         <v>3.07</v>
@@ -16261,7 +16283,7 @@
         <v>3.59</v>
       </c>
       <c r="O527">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="P527">
         <v>3.07</v>
@@ -16299,7 +16321,7 @@
         <v>96</v>
       </c>
       <c r="L528">
-        <v>8.27</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="M528">
         <v>56.2</v>
@@ -16311,7 +16333,7 @@
         <v>14.6</v>
       </c>
       <c r="P528">
-        <v>3.19</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="529" spans="1:16" x14ac:dyDescent="0.15">
@@ -16352,13 +16374,13 @@
         <v>59.9</v>
       </c>
       <c r="N529">
-        <v>3.88</v>
+        <v>3.87</v>
       </c>
       <c r="O529">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="P529">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="530" spans="1:16" x14ac:dyDescent="0.15">
@@ -16399,10 +16421,10 @@
         <v>63.5</v>
       </c>
       <c r="N530">
-        <v>3.87</v>
+        <v>3.86</v>
       </c>
       <c r="O530">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="P530">
         <v>3.14</v>
@@ -16446,13 +16468,13 @@
         <v>68.2</v>
       </c>
       <c r="N531">
-        <v>4.32</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="O531">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="P531">
-        <v>4.16</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="532" spans="1:16" x14ac:dyDescent="0.15">
@@ -16460,19 +16482,19 @@
         <v>42750</v>
       </c>
       <c r="C532">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="D532">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="E532">
         <v>5.56</v>
       </c>
       <c r="F532">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="G532">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="H532">
         <v>6.44</v>
@@ -16481,25 +16503,25 @@
         <v>4.21</v>
       </c>
       <c r="J532">
-        <v>9.3800000000000008</v>
+        <v>9.32</v>
       </c>
       <c r="K532">
-        <v>96</v>
+        <v>95.9</v>
       </c>
       <c r="L532">
-        <v>7.59</v>
+        <v>7.58</v>
       </c>
       <c r="M532">
         <v>70.5</v>
       </c>
       <c r="N532">
-        <v>4.9000000000000004</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="O532">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="P532">
-        <v>4.33</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="533" spans="1:16" x14ac:dyDescent="0.15">
@@ -16516,10 +16538,10 @@
         <v>6.39</v>
       </c>
       <c r="F533">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="G533">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="H533">
         <v>5.99</v>
@@ -16528,25 +16550,25 @@
         <v>4.13</v>
       </c>
       <c r="J533">
-        <v>10.07</v>
+        <v>10.01</v>
       </c>
       <c r="K533">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="L533">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="M533">
-        <v>69.099999999999994</v>
+        <v>69</v>
       </c>
       <c r="N533">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="O533">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="P533">
-        <v>3.74</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="534" spans="1:16" x14ac:dyDescent="0.15">
@@ -16575,25 +16597,25 @@
         <v>3.84</v>
       </c>
       <c r="J534">
-        <v>9.9</v>
+        <v>9.86</v>
       </c>
       <c r="K534">
         <v>95.7</v>
       </c>
       <c r="L534">
-        <v>7.69</v>
+        <v>7.68</v>
       </c>
       <c r="M534">
-        <v>67.8</v>
+        <v>67.7</v>
       </c>
       <c r="N534">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
       <c r="O534">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="P534">
-        <v>3.52</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="535" spans="1:16" x14ac:dyDescent="0.15">
@@ -16610,34 +16632,34 @@
         <v>3.74</v>
       </c>
       <c r="F535">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="G535">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="H535">
         <v>5.16</v>
       </c>
       <c r="I535">
-        <v>4.1900000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="J535">
-        <v>11.38</v>
+        <v>11.34</v>
       </c>
       <c r="K535">
-        <v>95.3</v>
+        <v>95.7</v>
       </c>
       <c r="L535">
-        <v>8.08</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="M535">
         <v>65</v>
       </c>
       <c r="N535">
-        <v>4.17</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="O535">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="P535">
         <v>3.5</v>
@@ -16660,7 +16682,7 @@
         <v>3.57</v>
       </c>
       <c r="G536">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="H536">
         <v>4.8</v>
@@ -16669,22 +16691,22 @@
         <v>4.42</v>
       </c>
       <c r="J536">
-        <v>13.32</v>
+        <v>13.25</v>
       </c>
       <c r="K536">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="L536">
-        <v>8.32</v>
+        <v>8.31</v>
       </c>
       <c r="M536">
         <v>60.8</v>
       </c>
       <c r="N536">
-        <v>4.07</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="O536">
-        <v>13.8</v>
+        <v>14.2</v>
       </c>
       <c r="P536">
         <v>3.61</v>
@@ -16713,28 +16735,28 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="I537">
-        <v>4.8600000000000003</v>
+        <v>4.82</v>
       </c>
       <c r="J537">
-        <v>16.13</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="K537">
-        <v>94.5</v>
+        <v>95.6</v>
       </c>
       <c r="L537">
-        <v>8.77</v>
+        <v>8.75</v>
       </c>
       <c r="M537">
         <v>58.2</v>
       </c>
       <c r="N537">
-        <v>4.0999999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="O537">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="P537">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="538" spans="1:16" x14ac:dyDescent="0.15">
@@ -16754,31 +16776,31 @@
         <v>3.37</v>
       </c>
       <c r="G538">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="H538">
         <v>4.26</v>
       </c>
       <c r="I538">
-        <v>4.72</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J538">
-        <v>17.96</v>
+        <v>17.86</v>
       </c>
       <c r="K538">
         <v>95.8</v>
       </c>
       <c r="L538">
-        <v>8.82</v>
+        <v>8.81</v>
       </c>
       <c r="M538">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="N538">
-        <v>3.96</v>
+        <v>3.92</v>
       </c>
       <c r="O538">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="P538">
         <v>3.32</v>
@@ -16807,28 +16829,28 @@
         <v>3.88</v>
       </c>
       <c r="I539">
-        <v>4.5999999999999996</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="J539">
-        <v>18.32</v>
+        <v>18.22</v>
       </c>
       <c r="K539">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="L539">
         <v>8.76</v>
       </c>
       <c r="M539">
-        <v>55.6</v>
+        <v>55.9</v>
       </c>
       <c r="N539">
-        <v>3.83</v>
+        <v>3.78</v>
       </c>
       <c r="O539">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="P539">
-        <v>3.27</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="540" spans="1:16" x14ac:dyDescent="0.15">
@@ -16854,28 +16876,28 @@
         <v>3.88</v>
       </c>
       <c r="I540">
-        <v>4.58</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="J540">
-        <v>17.010000000000002</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="K540">
         <v>96.1</v>
       </c>
       <c r="L540">
-        <v>8.49</v>
+        <v>8.52</v>
       </c>
       <c r="M540">
         <v>56.2</v>
       </c>
       <c r="N540">
-        <v>3.89</v>
+        <v>3.83</v>
       </c>
       <c r="O540">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="P540">
-        <v>3.31</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="541" spans="1:16" x14ac:dyDescent="0.15">
@@ -16883,10 +16905,10 @@
         <v>43023</v>
       </c>
       <c r="C541">
-        <v>2.0499999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="D541">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="E541">
         <v>4.41</v>
@@ -16901,28 +16923,28 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="I541">
-        <v>4.0599999999999996</v>
+        <v>4.03</v>
       </c>
       <c r="J541">
-        <v>13.5</v>
+        <v>13.39</v>
       </c>
       <c r="K541">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="L541">
-        <v>7.96</v>
+        <v>7.97</v>
       </c>
       <c r="M541">
-        <v>61.6</v>
+        <v>61.5</v>
       </c>
       <c r="N541">
-        <v>3.82</v>
+        <v>3.78</v>
       </c>
       <c r="O541">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="P541">
-        <v>3.27</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="542" spans="1:16" x14ac:dyDescent="0.15">
@@ -16930,7 +16952,7 @@
         <v>43054</v>
       </c>
       <c r="C542">
-        <v>2.52</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="D542">
         <v>2.4</v>
@@ -16948,25 +16970,25 @@
         <v>4.47</v>
       </c>
       <c r="I542">
-        <v>3.98</v>
+        <v>3.97</v>
       </c>
       <c r="J542">
-        <v>10.26</v>
+        <v>10.14</v>
       </c>
       <c r="K542">
-        <v>96</v>
+        <v>96.1</v>
       </c>
       <c r="L542">
-        <v>7.53</v>
+        <v>7.51</v>
       </c>
       <c r="M542">
-        <v>65.900000000000006</v>
+        <v>65.8</v>
       </c>
       <c r="N542">
-        <v>3.89</v>
+        <v>3.84</v>
       </c>
       <c r="O542">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="P542">
         <v>3.5</v>
@@ -16977,10 +16999,10 @@
         <v>43084</v>
       </c>
       <c r="C543">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="D543">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="E543">
         <v>5.55</v>
@@ -16998,22 +17020,22 @@
         <v>4</v>
       </c>
       <c r="J543">
-        <v>9.33</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="K543">
         <v>96.5</v>
       </c>
       <c r="L543">
-        <v>7.44</v>
+        <v>7.42</v>
       </c>
       <c r="M543">
-        <v>69.2</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="N543">
-        <v>4.25</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="O543">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="P543">
         <v>3.81</v>
@@ -17024,10 +17046,10 @@
         <v>43115</v>
       </c>
       <c r="C544">
-        <v>4.4000000000000004</v>
+        <v>4.41</v>
       </c>
       <c r="D544">
-        <v>3.78</v>
+        <v>3.79</v>
       </c>
       <c r="E544">
         <v>7.51</v>
@@ -17036,34 +17058,34 @@
         <v>3.97</v>
       </c>
       <c r="G544">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="H544">
         <v>4.34</v>
       </c>
       <c r="I544">
-        <v>4.3099999999999996</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="J544">
-        <v>8.93</v>
+        <v>8.9</v>
       </c>
       <c r="K544">
         <v>96.1</v>
       </c>
       <c r="L544">
-        <v>7.44</v>
+        <v>7.39</v>
       </c>
       <c r="M544">
-        <v>71.3</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="N544">
-        <v>4.5199999999999996</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="O544">
         <v>15</v>
       </c>
       <c r="P544">
-        <v>5.35</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="545" spans="1:16" x14ac:dyDescent="0.15">
@@ -17071,7 +17093,7 @@
         <v>43146</v>
       </c>
       <c r="C545">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="D545">
         <v>2.76</v>
@@ -17089,28 +17111,28 @@
         <v>5.62</v>
       </c>
       <c r="I545">
-        <v>3.97</v>
+        <v>3.99</v>
       </c>
       <c r="J545">
-        <v>9.65</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="K545">
         <v>96</v>
       </c>
       <c r="L545">
-        <v>7.85</v>
+        <v>7.74</v>
       </c>
       <c r="M545">
-        <v>69.099999999999994</v>
+        <v>69.2</v>
       </c>
       <c r="N545">
-        <v>4.9000000000000004</v>
+        <v>4.87</v>
       </c>
       <c r="O545">
         <v>14.6</v>
       </c>
       <c r="P545">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="546" spans="1:16" x14ac:dyDescent="0.15">
@@ -17121,7 +17143,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="D546">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="E546">
         <v>7.07</v>
@@ -17136,25 +17158,25 @@
         <v>4.45</v>
       </c>
       <c r="I546">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
       <c r="J546">
-        <v>9.7899999999999991</v>
+        <v>9.76</v>
       </c>
       <c r="K546">
         <v>95.9</v>
       </c>
       <c r="L546">
-        <v>7.76</v>
+        <v>7.71</v>
       </c>
       <c r="M546">
-        <v>68.400000000000006</v>
+        <v>68.5</v>
       </c>
       <c r="N546">
-        <v>4.0599999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="O546">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P546">
         <v>3.32</v>
@@ -17177,34 +17199,34 @@
         <v>3.46</v>
       </c>
       <c r="G547">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="H547">
         <v>4.5599999999999996</v>
       </c>
       <c r="I547">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="J547">
-        <v>10.08</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="K547">
         <v>95.6</v>
       </c>
       <c r="L547">
-        <v>7.67</v>
+        <v>7.65</v>
       </c>
       <c r="M547">
-        <v>65.2</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="N547">
-        <v>3.95</v>
+        <v>3.91</v>
       </c>
       <c r="O547">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P547">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="548" spans="1:16" x14ac:dyDescent="0.15">
@@ -17224,38 +17246,1166 @@
         <v>3.7</v>
       </c>
       <c r="G548">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="H548">
         <v>5.03</v>
       </c>
       <c r="I548">
-        <v>4.09</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="J548">
-        <v>13.67</v>
+        <v>13.52</v>
       </c>
       <c r="K548">
         <v>94.8</v>
       </c>
       <c r="L548">
-        <v>8.4600000000000009</v>
+        <v>8.34</v>
       </c>
       <c r="M548">
-        <v>59.7</v>
+        <v>60</v>
       </c>
       <c r="N548">
-        <v>3.85</v>
+        <v>3.81</v>
       </c>
       <c r="O548">
         <v>13.9</v>
       </c>
       <c r="P548">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="549" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A549" s="14"/>
+      <c r="A549" s="14">
+        <v>43266</v>
+      </c>
+      <c r="C549">
+        <v>1.87</v>
+      </c>
+      <c r="D549">
+        <v>1.77</v>
+      </c>
+      <c r="E549">
+        <v>4.62</v>
+      </c>
+      <c r="F549">
+        <v>3.43</v>
+      </c>
+      <c r="G549">
+        <v>2.96</v>
+      </c>
+      <c r="H549">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I549">
+        <v>4.49</v>
+      </c>
+      <c r="J549">
+        <v>16.47</v>
+      </c>
+      <c r="K549">
+        <v>95.7</v>
+      </c>
+      <c r="L549">
+        <v>8.58</v>
+      </c>
+      <c r="M549">
+        <v>57.7</v>
+      </c>
+      <c r="N549">
+        <v>3.78</v>
+      </c>
+      <c r="O549">
+        <v>13.8</v>
+      </c>
+      <c r="P549">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A550" s="14">
+        <v>43296</v>
+      </c>
+      <c r="C550">
+        <v>2.16</v>
+      </c>
+      <c r="D550">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E550">
+        <v>3.72</v>
+      </c>
+      <c r="F550">
+        <v>3.72</v>
+      </c>
+      <c r="G550">
+        <v>2.98</v>
+      </c>
+      <c r="H550">
+        <v>5.28</v>
+      </c>
+      <c r="I550">
+        <v>4.5</v>
+      </c>
+      <c r="J550">
+        <v>17.84</v>
+      </c>
+      <c r="K550">
+        <v>95.8</v>
+      </c>
+      <c r="L550">
+        <v>8.84</v>
+      </c>
+      <c r="M550">
+        <v>56.3</v>
+      </c>
+      <c r="N550">
+        <v>3.77</v>
+      </c>
+      <c r="O550">
+        <v>13.6</v>
+      </c>
+      <c r="P550">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A551" s="14">
+        <v>43327</v>
+      </c>
+      <c r="C551">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D551">
+        <v>2.1</v>
+      </c>
+      <c r="E551">
+        <v>3.72</v>
+      </c>
+      <c r="F551">
+        <v>3.78</v>
+      </c>
+      <c r="G551">
+        <v>3.13</v>
+      </c>
+      <c r="H551">
+        <v>5.33</v>
+      </c>
+      <c r="I551">
+        <v>5.25</v>
+      </c>
+      <c r="J551">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="K551">
+        <v>95.6</v>
+      </c>
+      <c r="L551">
+        <v>8.69</v>
+      </c>
+      <c r="M551">
+        <v>55.1</v>
+      </c>
+      <c r="N551">
+        <v>3.68</v>
+      </c>
+      <c r="O551">
+        <v>13.9</v>
+      </c>
+      <c r="P551">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A552" s="14">
+        <v>43358</v>
+      </c>
+      <c r="C552">
+        <v>2.09</v>
+      </c>
+      <c r="D552">
+        <v>1.97</v>
+      </c>
+      <c r="E552">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="F552">
+        <v>3.47</v>
+      </c>
+      <c r="G552">
+        <v>2.98</v>
+      </c>
+      <c r="H552">
+        <v>4.78</v>
+      </c>
+      <c r="I552">
+        <v>4.72</v>
+      </c>
+      <c r="J552">
+        <v>17.23</v>
+      </c>
+      <c r="K552">
+        <v>96.2</v>
+      </c>
+      <c r="L552">
+        <v>8.57</v>
+      </c>
+      <c r="M552">
+        <v>56.8</v>
+      </c>
+      <c r="N552">
+        <v>3.76</v>
+      </c>
+      <c r="O552">
+        <v>13.8</v>
+      </c>
+      <c r="P552">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A553" s="14">
+        <v>43388</v>
+      </c>
+      <c r="C553">
+        <v>2.61</v>
+      </c>
+      <c r="D553">
+        <v>2.34</v>
+      </c>
+      <c r="E553">
+        <v>5.9</v>
+      </c>
+      <c r="F553">
+        <v>3.76</v>
+      </c>
+      <c r="G553">
+        <v>3.28</v>
+      </c>
+      <c r="H553">
+        <v>4.92</v>
+      </c>
+      <c r="I553">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J553">
+        <v>12.23</v>
+      </c>
+      <c r="K553">
+        <v>96.5</v>
+      </c>
+      <c r="L553">
+        <v>7.69</v>
+      </c>
+      <c r="M553">
+        <v>61.2</v>
+      </c>
+      <c r="N553">
+        <v>4.04</v>
+      </c>
+      <c r="O553">
+        <v>14.1</v>
+      </c>
+      <c r="P553">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A554" s="14">
+        <v>43419</v>
+      </c>
+      <c r="C554">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D554">
+        <v>3.87</v>
+      </c>
+      <c r="E554">
+        <v>10.7</v>
+      </c>
+      <c r="F554">
+        <v>4.46</v>
+      </c>
+      <c r="G554">
+        <v>3.92</v>
+      </c>
+      <c r="H554">
+        <v>5.62</v>
+      </c>
+      <c r="I554">
+        <v>4.28</v>
+      </c>
+      <c r="J554">
+        <v>9.41</v>
+      </c>
+      <c r="K554">
+        <v>96.4</v>
+      </c>
+      <c r="L554">
+        <v>7.34</v>
+      </c>
+      <c r="M554">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="N554">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="O554">
+        <v>14.2</v>
+      </c>
+      <c r="P554">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A555" s="14">
+        <v>43449</v>
+      </c>
+      <c r="C555">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D555">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E555">
+        <v>8.64</v>
+      </c>
+      <c r="F555">
+        <v>5.22</v>
+      </c>
+      <c r="G555">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H555">
+        <v>6.84</v>
+      </c>
+      <c r="I555">
+        <v>4.72</v>
+      </c>
+      <c r="J555">
+        <v>9.61</v>
+      </c>
+      <c r="K555">
+        <v>96.2</v>
+      </c>
+      <c r="L555">
+        <v>7.7</v>
+      </c>
+      <c r="M555">
+        <v>69</v>
+      </c>
+      <c r="N555">
+        <v>5.48</v>
+      </c>
+      <c r="O555">
+        <v>14.3</v>
+      </c>
+      <c r="P555">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A556" s="14">
+        <v>43480</v>
+      </c>
+      <c r="C556">
+        <v>4.3</v>
+      </c>
+      <c r="D556">
+        <v>3.55</v>
+      </c>
+      <c r="E556">
+        <v>9.35</v>
+      </c>
+      <c r="F556">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G556">
+        <v>3.6</v>
+      </c>
+      <c r="H556">
+        <v>5.89</v>
+      </c>
+      <c r="I556">
+        <v>4.04</v>
+      </c>
+      <c r="J556">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="K556">
+        <v>96.3</v>
+      </c>
+      <c r="L556">
+        <v>7.7</v>
+      </c>
+      <c r="M556">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="N556">
+        <v>5.03</v>
+      </c>
+      <c r="O556">
+        <v>13.6</v>
+      </c>
+      <c r="P556">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A557" s="14">
+        <v>43511</v>
+      </c>
+      <c r="C557">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D557">
+        <v>3.6</v>
+      </c>
+      <c r="E557">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="F557">
+        <v>3.76</v>
+      </c>
+      <c r="G557">
+        <v>3.17</v>
+      </c>
+      <c r="H557">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I557">
+        <v>3.85</v>
+      </c>
+      <c r="J557">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="K557">
+        <v>96.1</v>
+      </c>
+      <c r="L557">
+        <v>7.58</v>
+      </c>
+      <c r="M557">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="N557">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="O557">
+        <v>14</v>
+      </c>
+      <c r="P557">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A558" s="14">
+        <v>43539</v>
+      </c>
+      <c r="C558">
+        <v>3.79</v>
+      </c>
+      <c r="D558">
+        <v>3.63</v>
+      </c>
+      <c r="E558">
+        <v>7.7</v>
+      </c>
+      <c r="F558">
+        <v>3.68</v>
+      </c>
+      <c r="G558">
+        <v>3.04</v>
+      </c>
+      <c r="H558">
+        <v>4.84</v>
+      </c>
+      <c r="I558">
+        <v>4.01</v>
+      </c>
+      <c r="J558">
+        <v>9.49</v>
+      </c>
+      <c r="K558">
+        <v>96</v>
+      </c>
+      <c r="L558">
+        <v>7.44</v>
+      </c>
+      <c r="M558">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="N558">
+        <v>4.32</v>
+      </c>
+      <c r="O558">
+        <v>13.6</v>
+      </c>
+      <c r="P558">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A559" s="14">
+        <v>43570</v>
+      </c>
+      <c r="C559">
+        <v>2.14</v>
+      </c>
+      <c r="D559">
+        <v>1.97</v>
+      </c>
+      <c r="E559">
+        <v>7.32</v>
+      </c>
+      <c r="F559">
+        <v>3.32</v>
+      </c>
+      <c r="G559">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H559">
+        <v>4.7</v>
+      </c>
+      <c r="I559">
+        <v>3.68</v>
+      </c>
+      <c r="J559">
+        <v>10.94</v>
+      </c>
+      <c r="K559">
+        <v>95.6</v>
+      </c>
+      <c r="L559">
+        <v>7.76</v>
+      </c>
+      <c r="M559">
+        <v>64.5</v>
+      </c>
+      <c r="N559">
+        <v>4</v>
+      </c>
+      <c r="O559">
+        <v>12.9</v>
+      </c>
+      <c r="P559">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A560" s="14">
+        <v>43600</v>
+      </c>
+      <c r="C560">
+        <v>1.81</v>
+      </c>
+      <c r="D560">
+        <v>1.81</v>
+      </c>
+      <c r="E560">
+        <v>7.66</v>
+      </c>
+      <c r="F560">
+        <v>3.51</v>
+      </c>
+      <c r="G560">
+        <v>2.94</v>
+      </c>
+      <c r="H560">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I560">
+        <v>3.65</v>
+      </c>
+      <c r="J560">
+        <v>12.88</v>
+      </c>
+      <c r="K560">
+        <v>95.7</v>
+      </c>
+      <c r="L560">
+        <v>8.08</v>
+      </c>
+      <c r="M560">
+        <v>61.1</v>
+      </c>
+      <c r="N560">
+        <v>3.64</v>
+      </c>
+      <c r="O560">
+        <v>12.5</v>
+      </c>
+      <c r="P560">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A561" s="14">
+        <v>43631</v>
+      </c>
+      <c r="C561">
+        <v>1.54</v>
+      </c>
+      <c r="D561">
+        <v>1.54</v>
+      </c>
+      <c r="E561">
+        <v>8.44</v>
+      </c>
+      <c r="F561">
+        <v>3.18</v>
+      </c>
+      <c r="G561">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H561">
+        <v>4.57</v>
+      </c>
+      <c r="I561">
+        <v>4.05</v>
+      </c>
+      <c r="J561">
+        <v>15.72</v>
+      </c>
+      <c r="K561">
+        <v>95.6</v>
+      </c>
+      <c r="L561">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="M561">
+        <v>58.9</v>
+      </c>
+      <c r="N561">
+        <v>3.55</v>
+      </c>
+      <c r="O561">
+        <v>12.3</v>
+      </c>
+      <c r="P561">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A562" s="14">
+        <v>43661</v>
+      </c>
+      <c r="C562">
+        <v>1.86</v>
+      </c>
+      <c r="D562">
+        <v>1.72</v>
+      </c>
+      <c r="E562">
+        <v>6.73</v>
+      </c>
+      <c r="F562">
+        <v>3.47</v>
+      </c>
+      <c r="G562">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H562">
+        <v>5.29</v>
+      </c>
+      <c r="I562">
+        <v>4.16</v>
+      </c>
+      <c r="J562">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="K562">
+        <v>95.9</v>
+      </c>
+      <c r="L562">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="M562">
+        <v>56.4</v>
+      </c>
+      <c r="N562">
+        <v>3.34</v>
+      </c>
+      <c r="O562">
+        <v>12.9</v>
+      </c>
+      <c r="P562">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A563" s="14">
+        <v>43692</v>
+      </c>
+      <c r="C563">
+        <v>1.73</v>
+      </c>
+      <c r="D563">
+        <v>1.63</v>
+      </c>
+      <c r="E563">
+        <v>4.57</v>
+      </c>
+      <c r="F563">
+        <v>3.23</v>
+      </c>
+      <c r="G563">
+        <v>2.15</v>
+      </c>
+      <c r="H563">
+        <v>5.13</v>
+      </c>
+      <c r="I563">
+        <v>4.2</v>
+      </c>
+      <c r="J563">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="K563">
+        <v>96</v>
+      </c>
+      <c r="L563">
+        <v>8.41</v>
+      </c>
+      <c r="M563">
+        <v>56</v>
+      </c>
+      <c r="N563">
+        <v>3.2</v>
+      </c>
+      <c r="O563">
+        <v>12.2</v>
+      </c>
+      <c r="P563">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A564" s="14">
+        <v>43723</v>
+      </c>
+      <c r="C564">
+        <v>1.65</v>
+      </c>
+      <c r="D564">
+        <v>1.65</v>
+      </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>3.56</v>
+      </c>
+      <c r="G564">
+        <v>2.38</v>
+      </c>
+      <c r="H564">
+        <v>5.28</v>
+      </c>
+      <c r="I564">
+        <v>4.13</v>
+      </c>
+      <c r="J564">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="K564">
+        <v>96.2</v>
+      </c>
+      <c r="L564">
+        <v>8.33</v>
+      </c>
+      <c r="M564">
+        <v>56.6</v>
+      </c>
+      <c r="N564">
+        <v>3.35</v>
+      </c>
+      <c r="O564">
+        <v>12.1</v>
+      </c>
+      <c r="P564">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A565" s="14">
+        <v>43753</v>
+      </c>
+      <c r="C565">
+        <v>2.15</v>
+      </c>
+      <c r="D565">
+        <v>1.96</v>
+      </c>
+      <c r="E565">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F565">
+        <v>3.55</v>
+      </c>
+      <c r="G565">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H565">
+        <v>5.31</v>
+      </c>
+      <c r="I565">
+        <v>3.4</v>
+      </c>
+      <c r="J565">
+        <v>12.62</v>
+      </c>
+      <c r="K565">
+        <v>96.8</v>
+      </c>
+      <c r="L565">
+        <v>7.63</v>
+      </c>
+      <c r="M565">
+        <v>60.5</v>
+      </c>
+      <c r="N565">
+        <v>3.43</v>
+      </c>
+      <c r="O565">
+        <v>11.9</v>
+      </c>
+      <c r="P565">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A566" s="14">
+        <v>43784</v>
+      </c>
+      <c r="C566">
+        <v>2.8</v>
+      </c>
+      <c r="D566">
+        <v>2.66</v>
+      </c>
+      <c r="E566">
+        <v>7.12</v>
+      </c>
+      <c r="F566">
+        <v>4.03</v>
+      </c>
+      <c r="G566">
+        <v>2.66</v>
+      </c>
+      <c r="H566">
+        <v>5.84</v>
+      </c>
+      <c r="I566">
+        <v>3.44</v>
+      </c>
+      <c r="J566">
+        <v>9.42</v>
+      </c>
+      <c r="K566">
+        <v>96.6</v>
+      </c>
+      <c r="L566">
+        <v>7.03</v>
+      </c>
+      <c r="M566">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="N566">
+        <v>3.87</v>
+      </c>
+      <c r="O566">
+        <v>12.6</v>
+      </c>
+      <c r="P566">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A567" s="14">
+        <v>43814</v>
+      </c>
+      <c r="C567">
+        <v>3.23</v>
+      </c>
+      <c r="D567">
+        <v>2.84</v>
+      </c>
+      <c r="E567">
+        <v>6.17</v>
+      </c>
+      <c r="F567">
+        <v>3.89</v>
+      </c>
+      <c r="G567">
+        <v>2.48</v>
+      </c>
+      <c r="H567">
+        <v>5.55</v>
+      </c>
+      <c r="I567">
+        <v>3.49</v>
+      </c>
+      <c r="J567">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="K567">
+        <v>96.4</v>
+      </c>
+      <c r="L567">
+        <v>7.21</v>
+      </c>
+      <c r="M567">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="N567">
+        <v>3.88</v>
+      </c>
+      <c r="O567">
+        <v>12.8</v>
+      </c>
+      <c r="P567">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A568" s="14">
+        <v>43845</v>
+      </c>
+      <c r="C568">
+        <v>2.92</v>
+      </c>
+      <c r="D568">
+        <v>2.44</v>
+      </c>
+      <c r="E568">
+        <v>6.03</v>
+      </c>
+      <c r="F568">
+        <v>3.67</v>
+      </c>
+      <c r="G568">
+        <v>2.13</v>
+      </c>
+      <c r="H568">
+        <v>5.26</v>
+      </c>
+      <c r="I568">
+        <v>3.27</v>
+      </c>
+      <c r="J568">
+        <v>9.52</v>
+      </c>
+      <c r="K568">
+        <v>96.4</v>
+      </c>
+      <c r="L568">
+        <v>7.26</v>
+      </c>
+      <c r="M568">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="N568">
+        <v>3.66</v>
+      </c>
+      <c r="O568">
+        <v>13.1</v>
+      </c>
+      <c r="P568">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A569" s="14">
+        <v>43876</v>
+      </c>
+      <c r="C569">
+        <v>2.16</v>
+      </c>
+      <c r="D569">
+        <v>1.94</v>
+      </c>
+      <c r="E569">
+        <v>5.67</v>
+      </c>
+      <c r="F569">
+        <v>3.48</v>
+      </c>
+      <c r="G569">
+        <v>1.93</v>
+      </c>
+      <c r="H569">
+        <v>5.04</v>
+      </c>
+      <c r="I569">
+        <v>3.09</v>
+      </c>
+      <c r="J569">
+        <v>9.26</v>
+      </c>
+      <c r="K569">
+        <v>96.3</v>
+      </c>
+      <c r="L569">
+        <v>7.06</v>
+      </c>
+      <c r="M569">
+        <v>69</v>
+      </c>
+      <c r="N569">
+        <v>3.54</v>
+      </c>
+      <c r="O569">
+        <v>13.2</v>
+      </c>
+      <c r="P569">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A570" s="14">
+        <v>43905</v>
+      </c>
+      <c r="C570">
+        <v>1.71</v>
+      </c>
+      <c r="D570">
+        <v>1.62</v>
+      </c>
+      <c r="E570">
+        <v>4.34</v>
+      </c>
+      <c r="F570">
+        <v>3.27</v>
+      </c>
+      <c r="G570">
+        <v>1.74</v>
+      </c>
+      <c r="H570">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I570">
+        <v>3.23</v>
+      </c>
+      <c r="J570">
+        <v>9.86</v>
+      </c>
+      <c r="K570">
+        <v>96.1</v>
+      </c>
+      <c r="L570">
+        <v>7.32</v>
+      </c>
+      <c r="M570">
+        <v>66.8</v>
+      </c>
+      <c r="N570">
+        <v>3.35</v>
+      </c>
+      <c r="O570">
+        <v>13</v>
+      </c>
+      <c r="P570">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A571" s="14">
+        <v>43936</v>
+      </c>
+      <c r="C571">
+        <v>1.5</v>
+      </c>
+      <c r="D571">
+        <v>1.48</v>
+      </c>
+      <c r="E571">
+        <v>1.48</v>
+      </c>
+      <c r="F571">
+        <v>3.17</v>
+      </c>
+      <c r="G571">
+        <v>1.68</v>
+      </c>
+      <c r="H571">
+        <v>4.67</v>
+      </c>
+      <c r="I571">
+        <v>3.06</v>
+      </c>
+      <c r="J571">
+        <v>10.68</v>
+      </c>
+      <c r="K571">
+        <v>95.9</v>
+      </c>
+      <c r="L571">
+        <v>7.38</v>
+      </c>
+      <c r="M571">
+        <v>64</v>
+      </c>
+      <c r="N571">
+        <v>2.97</v>
+      </c>
+      <c r="O571">
+        <v>12.7</v>
+      </c>
+      <c r="P571">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A572" s="14">
+        <v>43966</v>
+      </c>
+      <c r="C572">
+        <v>1.68</v>
+      </c>
+      <c r="D572">
+        <v>1.58</v>
+      </c>
+      <c r="E572">
+        <v>4.26</v>
+      </c>
+      <c r="F572">
+        <v>3.57</v>
+      </c>
+      <c r="G572">
+        <v>1.97</v>
+      </c>
+      <c r="H572">
+        <v>5.44</v>
+      </c>
+      <c r="I572">
+        <v>3.35</v>
+      </c>
+      <c r="J572">
+        <v>11.85</v>
+      </c>
+      <c r="K572">
+        <v>95.7</v>
+      </c>
+      <c r="L572">
+        <v>7.75</v>
+      </c>
+      <c r="M572">
+        <v>59.2</v>
+      </c>
+      <c r="N572">
+        <v>2.87</v>
+      </c>
+      <c r="O572">
+        <v>13.1</v>
+      </c>
+      <c r="P572">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A573" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
